--- a/Output/Data/List of illegal landings with no auction - To be cleaned.xlsx
+++ b/Output/Data/List of illegal landings with no auction - To be cleaned.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -71,9 +71,6 @@
     <t xml:space="preserve">TX1</t>
   </si>
   <si>
-    <t xml:space="preserve">UK124</t>
-  </si>
-  <si>
     <t xml:space="preserve">HD36</t>
   </si>
   <si>
@@ -152,16 +149,16 @@
     <t xml:space="preserve">SL42</t>
   </si>
   <si>
+    <t xml:space="preserve">ARM44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WR123</t>
+  </si>
+  <si>
     <t xml:space="preserve">TX21</t>
   </si>
   <si>
-    <t xml:space="preserve">ARM44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCH43</t>
+    <t xml:space="preserve">SL45</t>
   </si>
   <si>
     <t xml:space="preserve">WR274</t>
@@ -218,9 +215,6 @@
     <t xml:space="preserve">ARM18</t>
   </si>
   <si>
-    <t xml:space="preserve">IJM22</t>
-  </si>
-  <si>
     <t xml:space="preserve">UK95</t>
   </si>
   <si>
@@ -254,10 +248,10 @@
     <t xml:space="preserve">ZK87</t>
   </si>
   <si>
+    <t xml:space="preserve">UK172</t>
+  </si>
+  <si>
     <t xml:space="preserve">LO28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UK172</t>
   </si>
   <si>
     <t xml:space="preserve">UK56</t>
@@ -293,8 +287,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -331,7 +327,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,10 +614,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -798,7 +794,7 @@
         <v>43979</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -806,7 +802,7 @@
         <v>43979</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -814,7 +810,7 @@
         <v>43979</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -822,7 +818,7 @@
         <v>43979</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -830,15 +826,15 @@
         <v>43979</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -846,7 +842,7 @@
         <v>43980</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -854,7 +850,7 @@
         <v>43980</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -862,7 +858,7 @@
         <v>43980</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -870,7 +866,7 @@
         <v>43980</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -878,7 +874,7 @@
         <v>43980</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -886,7 +882,7 @@
         <v>43980</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -894,7 +890,7 @@
         <v>43980</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -902,7 +898,7 @@
         <v>43980</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -910,7 +906,7 @@
         <v>43980</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -918,15 +914,15 @@
         <v>43980</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>43980</v>
+        <v>43984</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39">
@@ -934,7 +930,7 @@
         <v>43984</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -942,23 +938,23 @@
         <v>43984</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
@@ -966,7 +962,7 @@
         <v>43985</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -974,23 +970,23 @@
         <v>43985</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B45" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
@@ -998,7 +994,7 @@
         <v>43986</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -1006,7 +1002,7 @@
         <v>43986</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
@@ -1014,7 +1010,7 @@
         <v>43986</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -1022,12 +1018,12 @@
         <v>43986</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -1035,18 +1031,18 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
@@ -1054,7 +1050,7 @@
         <v>43987</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
@@ -1062,7 +1058,7 @@
         <v>43987</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
@@ -1070,7 +1066,7 @@
         <v>43987</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
@@ -1078,7 +1074,7 @@
         <v>43987</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -1086,7 +1082,7 @@
         <v>43987</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
@@ -1094,7 +1090,7 @@
         <v>43987</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
@@ -1110,7 +1106,7 @@
         <v>43987</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1114,7 @@
         <v>43987</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -1126,7 +1122,7 @@
         <v>43987</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -1134,7 +1130,7 @@
         <v>43987</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
@@ -1142,7 +1138,7 @@
         <v>43987</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
@@ -1150,47 +1146,47 @@
         <v>43987</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>43987</v>
+        <v>43992</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>43987</v>
+        <v>43992</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>43987</v>
+        <v>43993</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
@@ -1198,7 +1194,7 @@
         <v>43993</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -1206,39 +1202,39 @@
         <v>43993</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78">
@@ -1246,7 +1242,7 @@
         <v>43994</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
@@ -1254,7 +1250,7 @@
         <v>43994</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
@@ -1262,7 +1258,7 @@
         <v>43994</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
@@ -1270,7 +1266,7 @@
         <v>43994</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -1278,7 +1274,7 @@
         <v>43994</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -1286,7 +1282,7 @@
         <v>43994</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
@@ -1294,7 +1290,7 @@
         <v>43994</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85">
@@ -1302,7 +1298,7 @@
         <v>43994</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1306,7 @@
         <v>43994</v>
       </c>
       <c r="B86" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
@@ -1318,7 +1314,7 @@
         <v>43994</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
@@ -1326,7 +1322,7 @@
         <v>43994</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -1334,7 +1330,7 @@
         <v>43994</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -1342,7 +1338,7 @@
         <v>43994</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1346,7 @@
         <v>43994</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
@@ -1358,7 +1354,7 @@
         <v>43994</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -1366,47 +1362,47 @@
         <v>43994</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B94" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99">
@@ -1414,7 +1410,7 @@
         <v>43997</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100">
@@ -1422,7 +1418,7 @@
         <v>43997</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101">
@@ -1430,7 +1426,7 @@
         <v>43997</v>
       </c>
       <c r="B101" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102">
@@ -1438,7 +1434,7 @@
         <v>43997</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103">
@@ -1446,7 +1442,7 @@
         <v>43997</v>
       </c>
       <c r="B103" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
@@ -1454,28 +1450,28 @@
         <v>43997</v>
       </c>
       <c r="B104" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>43997</v>
+        <v>43999</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>43997</v>
+        <v>43999</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>43997</v>
+        <v>43999</v>
       </c>
       <c r="B107" t="s">
         <v>43</v>
@@ -1483,42 +1479,42 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>43997</v>
+        <v>44000</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>43997</v>
+        <v>44000</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B111" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B112" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113">
@@ -1526,7 +1522,7 @@
         <v>44000</v>
       </c>
       <c r="B113" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114">
@@ -1534,7 +1530,7 @@
         <v>44000</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115">
@@ -1542,7 +1538,7 @@
         <v>44000</v>
       </c>
       <c r="B115" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -1550,7 +1546,7 @@
         <v>44000</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117">
@@ -1558,7 +1554,7 @@
         <v>44000</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118">
@@ -1566,7 +1562,7 @@
         <v>44000</v>
       </c>
       <c r="B118" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119">
@@ -1574,55 +1570,55 @@
         <v>44000</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B121" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B122" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B125" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126">
@@ -1630,7 +1626,7 @@
         <v>44001</v>
       </c>
       <c r="B126" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127">
@@ -1638,7 +1634,7 @@
         <v>44001</v>
       </c>
       <c r="B127" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128">
@@ -1646,7 +1642,7 @@
         <v>44001</v>
       </c>
       <c r="B128" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129">
@@ -1654,7 +1650,7 @@
         <v>44001</v>
       </c>
       <c r="B129" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130">
@@ -1662,7 +1658,7 @@
         <v>44001</v>
       </c>
       <c r="B130" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131">
@@ -1670,7 +1666,7 @@
         <v>44001</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132">
@@ -1678,7 +1674,7 @@
         <v>44001</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
@@ -1686,7 +1682,7 @@
         <v>44001</v>
       </c>
       <c r="B133" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134">
@@ -1694,7 +1690,7 @@
         <v>44001</v>
       </c>
       <c r="B134" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
@@ -1702,7 +1698,7 @@
         <v>44001</v>
       </c>
       <c r="B135" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
@@ -1710,7 +1706,7 @@
         <v>44001</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -1718,7 +1714,7 @@
         <v>44001</v>
       </c>
       <c r="B137" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138">
@@ -1726,7 +1722,7 @@
         <v>44001</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139">
@@ -1734,7 +1730,7 @@
         <v>44001</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
@@ -1742,55 +1738,55 @@
         <v>44001</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B142" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B144" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B145" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147">
@@ -1798,7 +1794,7 @@
         <v>44004</v>
       </c>
       <c r="B147" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="148">
@@ -1806,76 +1802,76 @@
         <v>44004</v>
       </c>
       <c r="B148" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B149" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B150" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>44004</v>
+        <v>44006</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>44004</v>
+        <v>44006</v>
       </c>
       <c r="B152" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>44004</v>
+        <v>44006</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>44004</v>
+        <v>44007</v>
       </c>
       <c r="B154" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>44004</v>
+        <v>44007</v>
       </c>
       <c r="B155" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="B156" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B157" t="s">
         <v>17</v>
@@ -1883,74 +1879,74 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B158" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B160" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B161" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B162" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B163" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B164" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B165" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167">
@@ -1958,7 +1954,7 @@
         <v>44008</v>
       </c>
       <c r="B167" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168">
@@ -1966,7 +1962,7 @@
         <v>44008</v>
       </c>
       <c r="B168" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169">
@@ -1974,7 +1970,7 @@
         <v>44008</v>
       </c>
       <c r="B169" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="170">
@@ -1982,7 +1978,7 @@
         <v>44008</v>
       </c>
       <c r="B170" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171">
@@ -1990,7 +1986,7 @@
         <v>44008</v>
       </c>
       <c r="B171" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172">
@@ -1998,7 +1994,7 @@
         <v>44008</v>
       </c>
       <c r="B172" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173">
@@ -2006,7 +2002,7 @@
         <v>44008</v>
       </c>
       <c r="B173" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174">
@@ -2014,7 +2010,7 @@
         <v>44008</v>
       </c>
       <c r="B174" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="175">
@@ -2022,7 +2018,7 @@
         <v>44008</v>
       </c>
       <c r="B175" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
@@ -2030,7 +2026,7 @@
         <v>44008</v>
       </c>
       <c r="B176" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177">
@@ -2038,7 +2034,7 @@
         <v>44008</v>
       </c>
       <c r="B177" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178">
@@ -2046,7 +2042,7 @@
         <v>44008</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179">
@@ -2054,7 +2050,7 @@
         <v>44008</v>
       </c>
       <c r="B179" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -2062,7 +2058,7 @@
         <v>44008</v>
       </c>
       <c r="B180" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181">
@@ -2070,7 +2066,7 @@
         <v>44008</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="182">
@@ -2078,7 +2074,7 @@
         <v>44008</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
@@ -2086,7 +2082,7 @@
         <v>44008</v>
       </c>
       <c r="B183" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="184">
@@ -2094,28 +2090,28 @@
         <v>44008</v>
       </c>
       <c r="B184" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B185" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B187" t="s">
         <v>22</v>
@@ -2123,26 +2119,26 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B188" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B189" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="191">
@@ -2150,7 +2146,7 @@
         <v>44011</v>
       </c>
       <c r="B191" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192">
@@ -2158,7 +2154,7 @@
         <v>44011</v>
       </c>
       <c r="B192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="193">
@@ -2166,7 +2162,7 @@
         <v>44011</v>
       </c>
       <c r="B193" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194">
@@ -2174,7 +2170,7 @@
         <v>44011</v>
       </c>
       <c r="B194" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195">
@@ -2182,7 +2178,7 @@
         <v>44011</v>
       </c>
       <c r="B195" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -2190,151 +2186,151 @@
         <v>44011</v>
       </c>
       <c r="B196" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>44011</v>
+        <v>44013</v>
       </c>
       <c r="B198" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>44011</v>
+        <v>44013</v>
       </c>
       <c r="B199" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>44011</v>
+        <v>44013</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>44011</v>
+        <v>44013</v>
       </c>
       <c r="B201" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>44011</v>
+        <v>44013</v>
       </c>
       <c r="B202" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>44011</v>
+        <v>44013</v>
       </c>
       <c r="B203" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B204" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B205" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B206" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B207" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B208" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B209" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B210" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B211" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B212" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B213" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B214" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="215">
@@ -2342,7 +2338,7 @@
         <v>44015</v>
       </c>
       <c r="B215" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="216">
@@ -2350,7 +2346,7 @@
         <v>44015</v>
       </c>
       <c r="B216" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217">
@@ -2358,7 +2354,7 @@
         <v>44015</v>
       </c>
       <c r="B217" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218">
@@ -2366,7 +2362,7 @@
         <v>44015</v>
       </c>
       <c r="B218" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219">
@@ -2374,7 +2370,7 @@
         <v>44015</v>
       </c>
       <c r="B219" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220">
@@ -2382,7 +2378,7 @@
         <v>44015</v>
       </c>
       <c r="B220" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221">
@@ -2390,7 +2386,7 @@
         <v>44015</v>
       </c>
       <c r="B221" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222">
@@ -2398,7 +2394,7 @@
         <v>44015</v>
       </c>
       <c r="B222" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223">
@@ -2406,7 +2402,7 @@
         <v>44015</v>
       </c>
       <c r="B223" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -2414,7 +2410,7 @@
         <v>44015</v>
       </c>
       <c r="B224" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225">
@@ -2422,52 +2418,52 @@
         <v>44015</v>
       </c>
       <c r="B225" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B227" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B228" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B229" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B231" t="s">
         <v>22</v>
@@ -2486,7 +2482,7 @@
         <v>44018</v>
       </c>
       <c r="B233" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234">
@@ -2494,7 +2490,7 @@
         <v>44018</v>
       </c>
       <c r="B234" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="235">
@@ -2502,7 +2498,7 @@
         <v>44018</v>
       </c>
       <c r="B235" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="236">
@@ -2510,7 +2506,7 @@
         <v>44018</v>
       </c>
       <c r="B236" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237">
@@ -2518,7 +2514,7 @@
         <v>44018</v>
       </c>
       <c r="B237" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="238">
@@ -2526,7 +2522,7 @@
         <v>44018</v>
       </c>
       <c r="B238" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="239">
@@ -2534,7 +2530,7 @@
         <v>44018</v>
       </c>
       <c r="B239" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="240">
@@ -2542,7 +2538,7 @@
         <v>44018</v>
       </c>
       <c r="B240" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241">
@@ -2550,7 +2546,7 @@
         <v>44018</v>
       </c>
       <c r="B241" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242">
@@ -2558,87 +2554,87 @@
         <v>44018</v>
       </c>
       <c r="B242" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>44018</v>
+        <v>44020</v>
       </c>
       <c r="B243" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>44018</v>
+        <v>44020</v>
       </c>
       <c r="B244" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>44018</v>
+        <v>44020</v>
       </c>
       <c r="B245" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>44018</v>
+        <v>44020</v>
       </c>
       <c r="B246" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>44018</v>
+        <v>44020</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B248" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B249" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B250" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B251" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B252" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="253">
@@ -2646,7 +2642,7 @@
         <v>44021</v>
       </c>
       <c r="B253" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="254">
@@ -2654,7 +2650,7 @@
         <v>44021</v>
       </c>
       <c r="B254" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255">
@@ -2662,7 +2658,7 @@
         <v>44021</v>
       </c>
       <c r="B255" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="256">
@@ -2670,39 +2666,39 @@
         <v>44021</v>
       </c>
       <c r="B256" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B257" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B258" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B259" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B260" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="261">
@@ -2710,7 +2706,7 @@
         <v>44022</v>
       </c>
       <c r="B261" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="262">
@@ -2718,7 +2714,7 @@
         <v>44022</v>
       </c>
       <c r="B262" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="263">
@@ -2726,7 +2722,7 @@
         <v>44022</v>
       </c>
       <c r="B263" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="264">
@@ -2734,7 +2730,7 @@
         <v>44022</v>
       </c>
       <c r="B264" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="265">
@@ -2742,7 +2738,7 @@
         <v>44022</v>
       </c>
       <c r="B265" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="266">
@@ -2750,7 +2746,7 @@
         <v>44022</v>
       </c>
       <c r="B266" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="267">
@@ -2758,7 +2754,7 @@
         <v>44022</v>
       </c>
       <c r="B267" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="268">
@@ -2766,7 +2762,7 @@
         <v>44022</v>
       </c>
       <c r="B268" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="269">
@@ -2774,7 +2770,7 @@
         <v>44022</v>
       </c>
       <c r="B269" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="270">
@@ -2782,7 +2778,7 @@
         <v>44022</v>
       </c>
       <c r="B270" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="271">
@@ -2790,7 +2786,7 @@
         <v>44022</v>
       </c>
       <c r="B271" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="272">
@@ -2798,7 +2794,7 @@
         <v>44022</v>
       </c>
       <c r="B272" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="273">
@@ -2806,7 +2802,7 @@
         <v>44022</v>
       </c>
       <c r="B273" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="274">
@@ -2814,7 +2810,7 @@
         <v>44022</v>
       </c>
       <c r="B274" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="275">
@@ -2822,7 +2818,7 @@
         <v>44022</v>
       </c>
       <c r="B275" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276">
@@ -2830,7 +2826,7 @@
         <v>44022</v>
       </c>
       <c r="B276" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="277">
@@ -2838,7 +2834,7 @@
         <v>44022</v>
       </c>
       <c r="B277" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278">
@@ -2846,7 +2842,7 @@
         <v>44022</v>
       </c>
       <c r="B278" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279">
@@ -2854,7 +2850,7 @@
         <v>44022</v>
       </c>
       <c r="B279" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280">
@@ -2862,7 +2858,7 @@
         <v>44022</v>
       </c>
       <c r="B280" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -2870,7 +2866,7 @@
         <v>44022</v>
       </c>
       <c r="B281" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282">
@@ -2878,55 +2874,55 @@
         <v>44022</v>
       </c>
       <c r="B282" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B283" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B284" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B285" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B286" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B287" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B288" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="289">
@@ -2934,7 +2930,7 @@
         <v>44025</v>
       </c>
       <c r="B289" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="290">
@@ -2942,7 +2938,7 @@
         <v>44025</v>
       </c>
       <c r="B290" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="291">
@@ -2950,7 +2946,7 @@
         <v>44025</v>
       </c>
       <c r="B291" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="292">
@@ -2958,7 +2954,7 @@
         <v>44025</v>
       </c>
       <c r="B292" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="293">
@@ -2966,7 +2962,7 @@
         <v>44025</v>
       </c>
       <c r="B293" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294">
@@ -2974,7 +2970,7 @@
         <v>44025</v>
       </c>
       <c r="B294" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="295">
@@ -2982,7 +2978,7 @@
         <v>44025</v>
       </c>
       <c r="B295" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="296">
@@ -2990,7 +2986,7 @@
         <v>44025</v>
       </c>
       <c r="B296" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="297">
@@ -3006,7 +3002,7 @@
         <v>44025</v>
       </c>
       <c r="B298" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="299">
@@ -3014,7 +3010,7 @@
         <v>44025</v>
       </c>
       <c r="B299" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300">
@@ -3022,76 +3018,76 @@
         <v>44025</v>
       </c>
       <c r="B300" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>44025</v>
+        <v>44026</v>
       </c>
       <c r="B301" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>44025</v>
+        <v>44027</v>
       </c>
       <c r="B302" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>44025</v>
+        <v>44027</v>
       </c>
       <c r="B303" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>44025</v>
+        <v>44027</v>
       </c>
       <c r="B304" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>44025</v>
+        <v>44027</v>
       </c>
       <c r="B305" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>44025</v>
+        <v>44027</v>
       </c>
       <c r="B306" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>44025</v>
+        <v>44027</v>
       </c>
       <c r="B307" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>44026</v>
+        <v>44028</v>
       </c>
       <c r="B308" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B309" t="s">
         <v>73</v>
@@ -3099,7 +3095,7 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B310" t="s">
         <v>57</v>
@@ -3107,34 +3103,34 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B311" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B312" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B313" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B314" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="315">
@@ -3142,7 +3138,7 @@
         <v>44028</v>
       </c>
       <c r="B315" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="316">
@@ -3150,63 +3146,63 @@
         <v>44028</v>
       </c>
       <c r="B316" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="B317" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="B318" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="B319" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="B320" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="B321" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="B322" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="B323" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="324">
@@ -3214,7 +3210,7 @@
         <v>44029</v>
       </c>
       <c r="B324" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="325">
@@ -3222,7 +3218,7 @@
         <v>44029</v>
       </c>
       <c r="B325" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="326">
@@ -3230,7 +3226,7 @@
         <v>44029</v>
       </c>
       <c r="B326" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="327">
@@ -3238,7 +3234,7 @@
         <v>44029</v>
       </c>
       <c r="B327" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="328">
@@ -3246,7 +3242,7 @@
         <v>44029</v>
       </c>
       <c r="B328" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="329">
@@ -3254,7 +3250,7 @@
         <v>44029</v>
       </c>
       <c r="B329" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="330">
@@ -3262,7 +3258,7 @@
         <v>44029</v>
       </c>
       <c r="B330" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="331">
@@ -3270,7 +3266,7 @@
         <v>44029</v>
       </c>
       <c r="B331" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="332">
@@ -3278,7 +3274,7 @@
         <v>44029</v>
       </c>
       <c r="B332" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="333">
@@ -3286,7 +3282,7 @@
         <v>44029</v>
       </c>
       <c r="B333" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="334">
@@ -3294,7 +3290,7 @@
         <v>44029</v>
       </c>
       <c r="B334" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="335">
@@ -3302,7 +3298,7 @@
         <v>44029</v>
       </c>
       <c r="B335" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="336">
@@ -3310,7 +3306,7 @@
         <v>44029</v>
       </c>
       <c r="B336" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="337">
@@ -3318,7 +3314,7 @@
         <v>44029</v>
       </c>
       <c r="B337" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="338">
@@ -3326,7 +3322,7 @@
         <v>44029</v>
       </c>
       <c r="B338" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="339">
@@ -3334,7 +3330,7 @@
         <v>44029</v>
       </c>
       <c r="B339" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="340">
@@ -3342,7 +3338,7 @@
         <v>44029</v>
       </c>
       <c r="B340" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="341">
@@ -3350,7 +3346,7 @@
         <v>44029</v>
       </c>
       <c r="B341" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342">
@@ -3358,7 +3354,7 @@
         <v>44029</v>
       </c>
       <c r="B342" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343">
@@ -3366,7 +3362,7 @@
         <v>44029</v>
       </c>
       <c r="B343" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344">
@@ -3374,7 +3370,7 @@
         <v>44029</v>
       </c>
       <c r="B344" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="345">
@@ -3390,7 +3386,7 @@
         <v>44029</v>
       </c>
       <c r="B346" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="347">
@@ -3398,79 +3394,79 @@
         <v>44029</v>
       </c>
       <c r="B347" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>44029</v>
+        <v>44032</v>
       </c>
       <c r="B348" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>44029</v>
+        <v>44032</v>
       </c>
       <c r="B349" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>44029</v>
+        <v>44032</v>
       </c>
       <c r="B350" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>44029</v>
+        <v>44032</v>
       </c>
       <c r="B351" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>44029</v>
+        <v>44032</v>
       </c>
       <c r="B352" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>44029</v>
+        <v>44032</v>
       </c>
       <c r="B353" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>44029</v>
+        <v>44032</v>
       </c>
       <c r="B354" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>44029</v>
+        <v>44032</v>
       </c>
       <c r="B355" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>44029</v>
+        <v>44032</v>
       </c>
       <c r="B356" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="357">
@@ -3478,12 +3474,12 @@
         <v>44032</v>
       </c>
       <c r="B357" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>44032</v>
+        <v>44034</v>
       </c>
       <c r="B358" t="s">
         <v>56</v>
@@ -3491,194 +3487,194 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>44032</v>
+        <v>44034</v>
       </c>
       <c r="B359" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>44032</v>
+        <v>44034</v>
       </c>
       <c r="B360" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>44032</v>
+        <v>44034</v>
       </c>
       <c r="B361" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>44032</v>
+        <v>44034</v>
       </c>
       <c r="B362" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>44032</v>
+        <v>44034</v>
       </c>
       <c r="B363" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>44032</v>
+        <v>44034</v>
       </c>
       <c r="B364" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>44032</v>
+        <v>44035</v>
       </c>
       <c r="B365" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>44032</v>
+        <v>44035</v>
       </c>
       <c r="B366" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="B367" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="B368" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="B369" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="B370" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="B371" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="B372" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="B373" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="B374" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="B375" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="B376" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="B377" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="B378" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="B379" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="B380" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="B381" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="B382" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="383">
@@ -3686,7 +3682,7 @@
         <v>44036</v>
       </c>
       <c r="B383" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="384">
@@ -3694,7 +3690,7 @@
         <v>44036</v>
       </c>
       <c r="B384" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="385">
@@ -3702,7 +3698,7 @@
         <v>44036</v>
       </c>
       <c r="B385" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="386">
@@ -3710,7 +3706,7 @@
         <v>44036</v>
       </c>
       <c r="B386" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="387">
@@ -3718,7 +3714,7 @@
         <v>44036</v>
       </c>
       <c r="B387" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="388">
@@ -3726,7 +3722,7 @@
         <v>44036</v>
       </c>
       <c r="B388" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="389">
@@ -3734,7 +3730,7 @@
         <v>44036</v>
       </c>
       <c r="B389" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="390">
@@ -3742,7 +3738,7 @@
         <v>44036</v>
       </c>
       <c r="B390" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="391">
@@ -3750,7 +3746,7 @@
         <v>44036</v>
       </c>
       <c r="B391" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="392">
@@ -3758,7 +3754,7 @@
         <v>44036</v>
       </c>
       <c r="B392" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="393">
@@ -3766,7 +3762,7 @@
         <v>44036</v>
       </c>
       <c r="B393" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="394">
@@ -3774,7 +3770,7 @@
         <v>44036</v>
       </c>
       <c r="B394" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395">
@@ -3782,7 +3778,7 @@
         <v>44036</v>
       </c>
       <c r="B395" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="396">
@@ -3790,7 +3786,7 @@
         <v>44036</v>
       </c>
       <c r="B396" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -3798,7 +3794,7 @@
         <v>44036</v>
       </c>
       <c r="B397" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="398">
@@ -3806,7 +3802,7 @@
         <v>44036</v>
       </c>
       <c r="B398" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="399">
@@ -3814,7 +3810,7 @@
         <v>44036</v>
       </c>
       <c r="B399" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400">
@@ -3822,68 +3818,68 @@
         <v>44036</v>
       </c>
       <c r="B400" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="B401" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="B402" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="B403" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="B404" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="B405" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="B406" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="B407" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="B408" t="s">
         <v>22</v>
@@ -3891,18 +3887,18 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="B409" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="B410" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="411">
@@ -3910,7 +3906,7 @@
         <v>44039</v>
       </c>
       <c r="B411" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="412">
@@ -3918,7 +3914,7 @@
         <v>44039</v>
       </c>
       <c r="B412" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="413">
@@ -3926,7 +3922,7 @@
         <v>44039</v>
       </c>
       <c r="B413" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="414">
@@ -3934,7 +3930,7 @@
         <v>44039</v>
       </c>
       <c r="B414" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="415">
@@ -3942,7 +3938,7 @@
         <v>44039</v>
       </c>
       <c r="B415" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="416">
@@ -3950,191 +3946,191 @@
         <v>44039</v>
       </c>
       <c r="B416" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="B417" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="B418" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="B419" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="B420" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="B421" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="B422" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="B423" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>44039</v>
+        <v>44042</v>
       </c>
       <c r="B424" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>44039</v>
+        <v>44042</v>
       </c>
       <c r="B425" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>44039</v>
+        <v>44042</v>
       </c>
       <c r="B426" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>44039</v>
+        <v>44042</v>
       </c>
       <c r="B427" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="B428" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>44041</v>
+        <v>44043</v>
       </c>
       <c r="B429" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>44041</v>
+        <v>44043</v>
       </c>
       <c r="B430" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>44041</v>
+        <v>44043</v>
       </c>
       <c r="B431" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>44041</v>
+        <v>44043</v>
       </c>
       <c r="B432" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>44041</v>
+        <v>44043</v>
       </c>
       <c r="B433" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>44041</v>
+        <v>44043</v>
       </c>
       <c r="B434" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="B435" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="B436" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="B437" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="B438" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="B439" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="440">
@@ -4142,7 +4138,7 @@
         <v>44043</v>
       </c>
       <c r="B440" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="441">
@@ -4150,7 +4146,7 @@
         <v>44043</v>
       </c>
       <c r="B441" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="442">
@@ -4158,7 +4154,7 @@
         <v>44043</v>
       </c>
       <c r="B442" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="443">
@@ -4166,7 +4162,7 @@
         <v>44043</v>
       </c>
       <c r="B443" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="444">
@@ -4174,7 +4170,7 @@
         <v>44043</v>
       </c>
       <c r="B444" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="445">
@@ -4182,7 +4178,7 @@
         <v>44043</v>
       </c>
       <c r="B445" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="446">
@@ -4190,7 +4186,7 @@
         <v>44043</v>
       </c>
       <c r="B446" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="447">
@@ -4198,7 +4194,7 @@
         <v>44043</v>
       </c>
       <c r="B447" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448">
@@ -4206,7 +4202,7 @@
         <v>44043</v>
       </c>
       <c r="B448" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="449">
@@ -4214,95 +4210,95 @@
         <v>44043</v>
       </c>
       <c r="B449" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="B450" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="B451" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="B452" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="B453" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="B454" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="B455" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="B456" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="B457" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="B458" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="B459" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="B460" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="461">
@@ -4310,7 +4306,7 @@
         <v>44046</v>
       </c>
       <c r="B461" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="462">
@@ -4318,7 +4314,7 @@
         <v>44046</v>
       </c>
       <c r="B462" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="463">
@@ -4326,215 +4322,215 @@
         <v>44046</v>
       </c>
       <c r="B463" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>44046</v>
+        <v>44047</v>
       </c>
       <c r="B464" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>44046</v>
+        <v>44048</v>
       </c>
       <c r="B465" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>44046</v>
+        <v>44048</v>
       </c>
       <c r="B466" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>44046</v>
+        <v>44048</v>
       </c>
       <c r="B467" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>44046</v>
+        <v>44048</v>
       </c>
       <c r="B468" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>44046</v>
+        <v>44048</v>
       </c>
       <c r="B469" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>44046</v>
+        <v>44049</v>
       </c>
       <c r="B470" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>44046</v>
+        <v>44049</v>
       </c>
       <c r="B471" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>44046</v>
+        <v>44049</v>
       </c>
       <c r="B472" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>44046</v>
+        <v>44049</v>
       </c>
       <c r="B473" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>44046</v>
+        <v>44049</v>
       </c>
       <c r="B474" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>44047</v>
+        <v>44049</v>
       </c>
       <c r="B475" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>44047</v>
+        <v>44049</v>
       </c>
       <c r="B476" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>44048</v>
+        <v>44050</v>
       </c>
       <c r="B477" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>44048</v>
+        <v>44050</v>
       </c>
       <c r="B478" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>44048</v>
+        <v>44050</v>
       </c>
       <c r="B479" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>44048</v>
+        <v>44050</v>
       </c>
       <c r="B480" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>44048</v>
+        <v>44050</v>
       </c>
       <c r="B481" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>44048</v>
+        <v>44050</v>
       </c>
       <c r="B482" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>44048</v>
+        <v>44050</v>
       </c>
       <c r="B483" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="B484" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="B485" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="B486" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="B487" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="B488" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="B489" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="490">
@@ -4542,7 +4538,7 @@
         <v>44050</v>
       </c>
       <c r="B490" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="491">
@@ -4550,7 +4546,7 @@
         <v>44050</v>
       </c>
       <c r="B491" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="492">
@@ -4558,7 +4554,7 @@
         <v>44050</v>
       </c>
       <c r="B492" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="493">
@@ -4566,7 +4562,7 @@
         <v>44050</v>
       </c>
       <c r="B493" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="494">
@@ -4574,7 +4570,7 @@
         <v>44050</v>
       </c>
       <c r="B494" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="495">
@@ -4582,7 +4578,7 @@
         <v>44050</v>
       </c>
       <c r="B495" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="496">
@@ -4590,7 +4586,7 @@
         <v>44050</v>
       </c>
       <c r="B496" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="497">
@@ -4598,7 +4594,7 @@
         <v>44050</v>
       </c>
       <c r="B497" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="498">
@@ -4606,7 +4602,7 @@
         <v>44050</v>
       </c>
       <c r="B498" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="499">
@@ -4614,7 +4610,7 @@
         <v>44050</v>
       </c>
       <c r="B499" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="500">
@@ -4622,7 +4618,7 @@
         <v>44050</v>
       </c>
       <c r="B500" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501">
@@ -4630,263 +4626,263 @@
         <v>44050</v>
       </c>
       <c r="B501" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>44050</v>
+        <v>44053</v>
       </c>
       <c r="B502" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>44050</v>
+        <v>44053</v>
       </c>
       <c r="B503" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>44050</v>
+        <v>44053</v>
       </c>
       <c r="B504" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>44050</v>
+        <v>44053</v>
       </c>
       <c r="B505" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>44050</v>
+        <v>44053</v>
       </c>
       <c r="B506" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>44050</v>
+        <v>44054</v>
       </c>
       <c r="B507" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="B508" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="B509" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="B510" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="B511" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="B512" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="B513" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>44050</v>
+        <v>44056</v>
       </c>
       <c r="B514" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>44053</v>
+        <v>44056</v>
       </c>
       <c r="B515" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>44053</v>
+        <v>44056</v>
       </c>
       <c r="B516" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>44053</v>
+        <v>44056</v>
       </c>
       <c r="B517" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>44053</v>
+        <v>44056</v>
       </c>
       <c r="B518" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>44053</v>
+        <v>44056</v>
       </c>
       <c r="B519" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>44054</v>
+        <v>44056</v>
       </c>
       <c r="B520" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="B521" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>44055</v>
+        <v>44057</v>
       </c>
       <c r="B522" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>44055</v>
+        <v>44057</v>
       </c>
       <c r="B523" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>44055</v>
+        <v>44057</v>
       </c>
       <c r="B524" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>44055</v>
+        <v>44057</v>
       </c>
       <c r="B525" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>44055</v>
+        <v>44057</v>
       </c>
       <c r="B526" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="B527" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="B528" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="B529" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="B530" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="B531" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="B532" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="B533" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="534">
@@ -4894,7 +4890,7 @@
         <v>44057</v>
       </c>
       <c r="B534" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="535">
@@ -4902,7 +4898,7 @@
         <v>44057</v>
       </c>
       <c r="B535" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="536">
@@ -4910,7 +4906,7 @@
         <v>44057</v>
       </c>
       <c r="B536" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="537">
@@ -4918,7 +4914,7 @@
         <v>44057</v>
       </c>
       <c r="B537" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="538">
@@ -4926,7 +4922,7 @@
         <v>44057</v>
       </c>
       <c r="B538" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="539">
@@ -4934,7 +4930,7 @@
         <v>44057</v>
       </c>
       <c r="B539" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="540">
@@ -4942,7 +4938,7 @@
         <v>44057</v>
       </c>
       <c r="B540" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="541">
@@ -4950,7 +4946,7 @@
         <v>44057</v>
       </c>
       <c r="B541" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542">
@@ -4958,7 +4954,7 @@
         <v>44057</v>
       </c>
       <c r="B542" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
     </row>
     <row r="543">
@@ -4966,108 +4962,108 @@
         <v>44057</v>
       </c>
       <c r="B543" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>44057</v>
+        <v>44060</v>
       </c>
       <c r="B544" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>44057</v>
+        <v>44060</v>
       </c>
       <c r="B545" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>44057</v>
+        <v>44060</v>
       </c>
       <c r="B546" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>44057</v>
+        <v>44060</v>
       </c>
       <c r="B547" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>44057</v>
+        <v>44060</v>
       </c>
       <c r="B548" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>44057</v>
+        <v>44060</v>
       </c>
       <c r="B549" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>44057</v>
+        <v>44060</v>
       </c>
       <c r="B550" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>44057</v>
+        <v>44060</v>
       </c>
       <c r="B551" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="B552" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="B553" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>44057</v>
+        <v>44062</v>
       </c>
       <c r="B554" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>44057</v>
+        <v>44062</v>
       </c>
       <c r="B555" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>44057</v>
+        <v>44062</v>
       </c>
       <c r="B556" t="s">
         <v>15</v>
@@ -5075,186 +5071,186 @@
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>44060</v>
+        <v>44063</v>
       </c>
       <c r="B557" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>44060</v>
+        <v>44063</v>
       </c>
       <c r="B558" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>44060</v>
+        <v>44063</v>
       </c>
       <c r="B559" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>44060</v>
+        <v>44063</v>
       </c>
       <c r="B560" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>44060</v>
+        <v>44063</v>
       </c>
       <c r="B561" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>44060</v>
+        <v>44063</v>
       </c>
       <c r="B562" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>44060</v>
+        <v>44063</v>
       </c>
       <c r="B563" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>44061</v>
+        <v>44063</v>
       </c>
       <c r="B564" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>44061</v>
+        <v>44063</v>
       </c>
       <c r="B565" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="B566" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="B567" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="B568" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B569" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B570" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B571" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B572" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B573" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B574" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B575" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B576" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B577" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B578" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B579" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="580">
@@ -5262,7 +5258,7 @@
         <v>44064</v>
       </c>
       <c r="B580" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="581">
@@ -5270,7 +5266,7 @@
         <v>44064</v>
       </c>
       <c r="B581" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="582">
@@ -5278,7 +5274,7 @@
         <v>44064</v>
       </c>
       <c r="B582" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="583">
@@ -5286,7 +5282,7 @@
         <v>44064</v>
       </c>
       <c r="B583" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="584">
@@ -5294,7 +5290,7 @@
         <v>44064</v>
       </c>
       <c r="B584" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="585">
@@ -5310,7 +5306,7 @@
         <v>44064</v>
       </c>
       <c r="B586" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="587">
@@ -5318,7 +5314,7 @@
         <v>44064</v>
       </c>
       <c r="B587" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="588">
@@ -5326,7 +5322,7 @@
         <v>44064</v>
       </c>
       <c r="B588" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="589">
@@ -5334,7 +5330,7 @@
         <v>44064</v>
       </c>
       <c r="B589" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="590">
@@ -5342,7 +5338,7 @@
         <v>44064</v>
       </c>
       <c r="B590" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="591">
@@ -5350,7 +5346,7 @@
         <v>44064</v>
       </c>
       <c r="B591" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="592">
@@ -5358,7 +5354,7 @@
         <v>44064</v>
       </c>
       <c r="B592" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593">
@@ -5366,263 +5362,263 @@
         <v>44064</v>
       </c>
       <c r="B593" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="B594" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="B595" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="B596" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="B597" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="B598" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="B599" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="B600" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>44064</v>
+        <v>44067</v>
       </c>
       <c r="B601" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>44064</v>
+        <v>44069</v>
       </c>
       <c r="B602" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>44064</v>
+        <v>44069</v>
       </c>
       <c r="B603" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>44064</v>
+        <v>44069</v>
       </c>
       <c r="B604" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>44067</v>
+        <v>44069</v>
       </c>
       <c r="B605" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>44067</v>
+        <v>44069</v>
       </c>
       <c r="B606" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>44067</v>
+        <v>44069</v>
       </c>
       <c r="B607" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>44067</v>
+        <v>44069</v>
       </c>
       <c r="B608" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>44067</v>
+        <v>44069</v>
       </c>
       <c r="B609" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>44067</v>
+        <v>44069</v>
       </c>
       <c r="B610" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>44067</v>
+        <v>44070</v>
       </c>
       <c r="B611" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="B612" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="B613" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="B614" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="B615" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="B616" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>44069</v>
+        <v>44071</v>
       </c>
       <c r="B617" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>44069</v>
+        <v>44071</v>
       </c>
       <c r="B618" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>44069</v>
+        <v>44071</v>
       </c>
       <c r="B619" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="B620" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="B621" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="B622" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="B623" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="B624" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="B625" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="626">
@@ -5630,7 +5626,7 @@
         <v>44071</v>
       </c>
       <c r="B626" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="627">
@@ -5638,79 +5634,79 @@
         <v>44071</v>
       </c>
       <c r="B627" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>44071</v>
+        <v>44074</v>
       </c>
       <c r="B628" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>44071</v>
+        <v>44074</v>
       </c>
       <c r="B629" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>44071</v>
+        <v>44074</v>
       </c>
       <c r="B630" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>44071</v>
+        <v>44074</v>
       </c>
       <c r="B631" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>44071</v>
+        <v>44074</v>
       </c>
       <c r="B632" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>44071</v>
+        <v>44074</v>
       </c>
       <c r="B633" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>44071</v>
+        <v>44074</v>
       </c>
       <c r="B634" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>44071</v>
+        <v>44074</v>
       </c>
       <c r="B635" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>44071</v>
+        <v>44074</v>
       </c>
       <c r="B636" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="637">
@@ -5718,7 +5714,7 @@
         <v>44074</v>
       </c>
       <c r="B637" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
     </row>
     <row r="638">
@@ -5726,68 +5722,68 @@
         <v>44074</v>
       </c>
       <c r="B638" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>44074</v>
+        <v>44076</v>
       </c>
       <c r="B639" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>44074</v>
+        <v>44076</v>
       </c>
       <c r="B640" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="B641" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="B642" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="B643" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="B644" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="B645" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="B646" t="s">
         <v>38</v>
@@ -5795,18 +5791,18 @@
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="B647" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="B648" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="649">
@@ -5814,7 +5810,7 @@
         <v>44077</v>
       </c>
       <c r="B649" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="650">
@@ -5822,63 +5818,63 @@
         <v>44077</v>
       </c>
       <c r="B650" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B651" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B652" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B653" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B654" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B655" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B656" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B657" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="658">
@@ -5886,7 +5882,7 @@
         <v>44078</v>
       </c>
       <c r="B658" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="659">
@@ -5894,7 +5890,7 @@
         <v>44078</v>
       </c>
       <c r="B659" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="660">
@@ -5902,7 +5898,7 @@
         <v>44078</v>
       </c>
       <c r="B660" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="661">
@@ -5910,7 +5906,7 @@
         <v>44078</v>
       </c>
       <c r="B661" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="662">
@@ -5918,7 +5914,7 @@
         <v>44078</v>
       </c>
       <c r="B662" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="663">
@@ -5926,7 +5922,7 @@
         <v>44078</v>
       </c>
       <c r="B663" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="664">
@@ -5934,7 +5930,7 @@
         <v>44078</v>
       </c>
       <c r="B664" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="665">
@@ -5942,7 +5938,7 @@
         <v>44078</v>
       </c>
       <c r="B665" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="666">
@@ -5950,7 +5946,7 @@
         <v>44078</v>
       </c>
       <c r="B666" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="667">
@@ -5958,63 +5954,63 @@
         <v>44078</v>
       </c>
       <c r="B667" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>44078</v>
+        <v>44081</v>
       </c>
       <c r="B668" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>44078</v>
+        <v>44081</v>
       </c>
       <c r="B669" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>44078</v>
+        <v>44081</v>
       </c>
       <c r="B670" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>44078</v>
+        <v>44081</v>
       </c>
       <c r="B671" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>44078</v>
+        <v>44081</v>
       </c>
       <c r="B672" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>44078</v>
+        <v>44081</v>
       </c>
       <c r="B673" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>44078</v>
+        <v>44081</v>
       </c>
       <c r="B674" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="675">
@@ -6022,7 +6018,7 @@
         <v>44081</v>
       </c>
       <c r="B675" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
     </row>
     <row r="676">
@@ -6030,7 +6026,7 @@
         <v>44081</v>
       </c>
       <c r="B676" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="677">
@@ -6038,63 +6034,63 @@
         <v>44081</v>
       </c>
       <c r="B677" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>44081</v>
+        <v>44083</v>
       </c>
       <c r="B678" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>44081</v>
+        <v>44084</v>
       </c>
       <c r="B679" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>44081</v>
+        <v>44084</v>
       </c>
       <c r="B680" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>44081</v>
+        <v>44084</v>
       </c>
       <c r="B681" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
-        <v>44081</v>
+        <v>44084</v>
       </c>
       <c r="B682" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
-        <v>44081</v>
+        <v>44084</v>
       </c>
       <c r="B683" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="B684" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="685">
@@ -6102,7 +6098,7 @@
         <v>44084</v>
       </c>
       <c r="B685" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="686">
@@ -6110,47 +6106,47 @@
         <v>44084</v>
       </c>
       <c r="B686" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="B687" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="B688" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="B689" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="B690" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="B691" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="692">
@@ -6158,7 +6154,7 @@
         <v>44085</v>
       </c>
       <c r="B692" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="693">
@@ -6166,7 +6162,7 @@
         <v>44085</v>
       </c>
       <c r="B693" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="694">
@@ -6174,7 +6170,7 @@
         <v>44085</v>
       </c>
       <c r="B694" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="695">
@@ -6182,7 +6178,7 @@
         <v>44085</v>
       </c>
       <c r="B695" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="696">
@@ -6190,7 +6186,7 @@
         <v>44085</v>
       </c>
       <c r="B696" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="697">
@@ -6198,7 +6194,7 @@
         <v>44085</v>
       </c>
       <c r="B697" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="698">
@@ -6206,7 +6202,7 @@
         <v>44085</v>
       </c>
       <c r="B698" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="699">
@@ -6214,47 +6210,47 @@
         <v>44085</v>
       </c>
       <c r="B699" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
-        <v>44085</v>
+        <v>44088</v>
       </c>
       <c r="B700" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
-        <v>44085</v>
+        <v>44088</v>
       </c>
       <c r="B701" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
-        <v>44085</v>
+        <v>44088</v>
       </c>
       <c r="B702" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
-        <v>44085</v>
+        <v>44088</v>
       </c>
       <c r="B703" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
-        <v>44085</v>
+        <v>44088</v>
       </c>
       <c r="B704" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="705">
@@ -6262,7 +6258,7 @@
         <v>44088</v>
       </c>
       <c r="B705" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="706">
@@ -6270,39 +6266,39 @@
         <v>44088</v>
       </c>
       <c r="B706" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="B707" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="B708" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="B709" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="B710" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="711">
@@ -6310,31 +6306,31 @@
         <v>44090</v>
       </c>
       <c r="B711" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="B712" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="B713" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="B714" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="715">
@@ -6342,31 +6338,31 @@
         <v>44091</v>
       </c>
       <c r="B715" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="B716" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="B717" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="1" t="n">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="B718" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="719">
@@ -6374,7 +6370,7 @@
         <v>44092</v>
       </c>
       <c r="B719" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="720">
@@ -6382,7 +6378,7 @@
         <v>44092</v>
       </c>
       <c r="B720" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="721">
@@ -6390,7 +6386,7 @@
         <v>44092</v>
       </c>
       <c r="B721" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="722">
@@ -6398,7 +6394,7 @@
         <v>44092</v>
       </c>
       <c r="B722" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="723">
@@ -6406,7 +6402,7 @@
         <v>44092</v>
       </c>
       <c r="B723" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="724">
@@ -6414,7 +6410,7 @@
         <v>44092</v>
       </c>
       <c r="B724" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="725">
@@ -6422,7 +6418,7 @@
         <v>44092</v>
       </c>
       <c r="B725" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="726">
@@ -6430,31 +6426,31 @@
         <v>44092</v>
       </c>
       <c r="B726" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="1" t="n">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="B727" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="B728" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="B729" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="730">
@@ -6462,7 +6458,7 @@
         <v>44095</v>
       </c>
       <c r="B730" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="731">
@@ -6470,31 +6466,31 @@
         <v>44095</v>
       </c>
       <c r="B731" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="1" t="n">
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="B732" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="1" t="n">
-        <v>44095</v>
+        <v>44097</v>
       </c>
       <c r="B733" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="1" t="n">
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="B734" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="735">
@@ -6502,7 +6498,7 @@
         <v>44098</v>
       </c>
       <c r="B735" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="736">
@@ -6510,7 +6506,7 @@
         <v>44098</v>
       </c>
       <c r="B736" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="737">
@@ -6518,7 +6514,7 @@
         <v>44098</v>
       </c>
       <c r="B737" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="738">
@@ -6526,15 +6522,15 @@
         <v>44098</v>
       </c>
       <c r="B738" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="1" t="n">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="B739" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="740">
@@ -6542,7 +6538,7 @@
         <v>44099</v>
       </c>
       <c r="B740" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="741">
@@ -6550,7 +6546,7 @@
         <v>44099</v>
       </c>
       <c r="B741" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="742">
@@ -6558,7 +6554,7 @@
         <v>44099</v>
       </c>
       <c r="B742" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="743">
@@ -6566,7 +6562,7 @@
         <v>44099</v>
       </c>
       <c r="B743" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="744">
@@ -6574,7 +6570,7 @@
         <v>44099</v>
       </c>
       <c r="B744" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="745">
@@ -6582,7 +6578,7 @@
         <v>44099</v>
       </c>
       <c r="B745" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="746">
@@ -6590,7 +6586,7 @@
         <v>44099</v>
       </c>
       <c r="B746" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="747">
@@ -6598,7 +6594,7 @@
         <v>44099</v>
       </c>
       <c r="B747" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="748">
@@ -6606,15 +6602,15 @@
         <v>44099</v>
       </c>
       <c r="B748" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="1" t="n">
-        <v>44099</v>
+        <v>44102</v>
       </c>
       <c r="B749" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="750">
@@ -6622,7 +6618,7 @@
         <v>44102</v>
       </c>
       <c r="B750" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="751">
@@ -6635,18 +6631,18 @@
     </row>
     <row r="752">
       <c r="A752" s="1" t="n">
-        <v>44102</v>
+        <v>44104</v>
       </c>
       <c r="B752" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="1" t="n">
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="B753" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="754">
@@ -6654,15 +6650,15 @@
         <v>44105</v>
       </c>
       <c r="B754" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="1" t="n">
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="B755" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="756">
@@ -6670,7 +6666,7 @@
         <v>44106</v>
       </c>
       <c r="B756" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="757">
@@ -6678,7 +6674,7 @@
         <v>44106</v>
       </c>
       <c r="B757" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="758">
@@ -6686,7 +6682,7 @@
         <v>44106</v>
       </c>
       <c r="B758" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="759">
@@ -6694,7 +6690,7 @@
         <v>44106</v>
       </c>
       <c r="B759" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="760">
@@ -6702,15 +6698,15 @@
         <v>44106</v>
       </c>
       <c r="B760" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="1" t="n">
-        <v>44106</v>
+        <v>44109</v>
       </c>
       <c r="B761" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="762">
@@ -6726,15 +6722,15 @@
         <v>44109</v>
       </c>
       <c r="B763" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="1" t="n">
-        <v>44109</v>
+        <v>44113</v>
       </c>
       <c r="B764" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="765">
@@ -6742,7 +6738,7 @@
         <v>44113</v>
       </c>
       <c r="B765" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="766">
@@ -6750,15 +6746,15 @@
         <v>44113</v>
       </c>
       <c r="B766" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="1" t="n">
-        <v>44113</v>
+        <v>44116</v>
       </c>
       <c r="B767" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="768">
@@ -6766,7 +6762,7 @@
         <v>44116</v>
       </c>
       <c r="B768" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="769">
@@ -6774,7 +6770,7 @@
         <v>44116</v>
       </c>
       <c r="B769" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="770">
@@ -6782,15 +6778,15 @@
         <v>44116</v>
       </c>
       <c r="B770" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="1" t="n">
-        <v>44116</v>
+        <v>44119</v>
       </c>
       <c r="B771" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="772">
@@ -6798,7 +6794,7 @@
         <v>44119</v>
       </c>
       <c r="B772" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="773">
@@ -6806,15 +6802,15 @@
         <v>44119</v>
       </c>
       <c r="B773" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="1" t="n">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="B774" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="775">
@@ -6822,15 +6818,15 @@
         <v>44120</v>
       </c>
       <c r="B775" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="1" t="n">
-        <v>44120</v>
+        <v>44123</v>
       </c>
       <c r="B776" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="777">
@@ -6846,15 +6842,15 @@
         <v>44123</v>
       </c>
       <c r="B778" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="1" t="n">
-        <v>44123</v>
+        <v>44127</v>
       </c>
       <c r="B779" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="780">
@@ -6862,15 +6858,15 @@
         <v>44127</v>
       </c>
       <c r="B780" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="1" t="n">
-        <v>44127</v>
+        <v>44134</v>
       </c>
       <c r="B781" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="782">
@@ -6878,39 +6874,31 @@
         <v>44134</v>
       </c>
       <c r="B782" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="1" t="n">
-        <v>44134</v>
+        <v>44147</v>
       </c>
       <c r="B783" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="1" t="n">
-        <v>44147</v>
+        <v>44151</v>
       </c>
       <c r="B784" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="1" t="n">
-        <v>44151</v>
+        <v>44165</v>
       </c>
       <c r="B785" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" s="1" t="n">
-        <v>44165</v>
-      </c>
-      <c r="B786" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
